--- a/biology/Zoologie/Sphegina_abrasa/Sphegina_abrasa.xlsx
+++ b/biology/Zoologie/Sphegina_abrasa/Sphegina_abrasa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphegina abrasa est une espèce fossile d'insectes diptères de la famille des Syrphidae.
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Sphegina abrasa est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2].
-Holotype
-L'holotype et échantillon R186, de l'ère Cénozoïque, et de l'époque Oligocène supérieur ou Rupélien (33,9 à 28,1 Ma) de la collection Mieg, et conservée au Musée d'histoire naturelle de Bâle vient du gisement de Kleinkembs en Bade-Wurtemberg, sur la rive droite du Rhin[1],[2].
-Étymologie
-L'épithète spécifique latine abrasa signifie « gratté ».
-Confirmation genre et sous-famille
-Le genre Sphegina et la sous-famille des Cheilosinae sont réaffirmés en 1945 par l'entomologiste américain Frank Montgomery Hull (1901-1982)[3],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Sphegina abrasa est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,.
 </t>
         </is>
       </c>
@@ -545,19 +553,207 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Holotype</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype et échantillon R186, de l'ère Cénozoïque, et de l'époque Oligocène supérieur ou Rupélien (33,9 à 28,1 Ma) de la collection Mieg, et conservée au Musée d'histoire naturelle de Bâle vient du gisement de Kleinkembs en Bade-Wurtemberg, sur la rive droite du Rhin,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sphegina_abrasa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphegina_abrasa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine abrasa signifie « gratté ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sphegina_abrasa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphegina_abrasa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Confirmation genre et sous-famille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Sphegina et la sous-famille des Cheilosinae sont réaffirmés en 1945 par l'entomologiste américain Frank Montgomery Hull (1901-1982),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sphegina_abrasa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphegina_abrasa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Insecte au corps de coloration jaune ferrugineux, la base de la tête conserve encore des traces noires ; pattes jaunes, ailes gris pâle. Tête semicirculaire, aussi large que le thorax, yeux nus, gros, saillants, de forme ovale, face déprimée ; antennes pas visibles. Thorax allongé, de forme subrectangulaire, à coins arrondis, scutellum arrondi vers l'arrière. Abdomen nettement séparé du thorax, renflé en massue, plus long que le thorax ; quatre segments visibles, le 4e plus foncé que les précédents. Corps couvert d'une fine pubescence. Pattes grêles, finement velues, fémur III renflé et portant deux rangées d'épines sur le bord postérieur. Tibia III courbe. Ailes atteignant presque l'extrémité de l'abdomen, nervation bien conservée, sauf vers le sommet de l'aile ; Sc se termine vers le milieu du bord antérieur ; R allongée ; Rs bifurqué, se relie à M par une nervure transversale ; M bifurquée, une cellule discoïdale, la branche antérieure de M se relie à Rs; Cu bifurquée, se relie à M (v. figure). »[1].
-Dimensions
-La longueur totale est de 8 mm ; l'aile a une longueur de 5 mm[1].
-Affinités
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte au corps de coloration jaune ferrugineux, la base de la tête conserve encore des traces noires ; pattes jaunes, ailes gris pâle. Tête semicirculaire, aussi large que le thorax, yeux nus, gros, saillants, de forme ovale, face déprimée ; antennes pas visibles. Thorax allongé, de forme subrectangulaire, à coins arrondis, scutellum arrondi vers l'arrière. Abdomen nettement séparé du thorax, renflé en massue, plus long que le thorax ; quatre segments visibles, le 4e plus foncé que les précédents. Corps couvert d'une fine pubescence. Pattes grêles, finement velues, fémur III renflé et portant deux rangées d'épines sur le bord postérieur. Tibia III courbe. Ailes atteignant presque l'extrémité de l'abdomen, nervation bien conservée, sauf vers le sommet de l'aile ; Sc se termine vers le milieu du bord antérieur ; R allongée ; Rs bifurqué, se relie à M par une nervure transversale ; M bifurquée, une cellule discoïdale, la branche antérieure de M se relie à Rs; Cu bifurquée, se relie à M (v. figure). ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sphegina_abrasa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphegina_abrasa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 8 mm ; l'aile a une longueur de 5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sphegina_abrasa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphegina_abrasa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « La nervation des ailes est celle des Syrphidae. Dans le g. Sphegina, le fémur tertiaire est renflé et armé d'épines, le tibia III est recourbé. Sphegina tricoloripes Brun. des Indes a des ailes de même teinte et une taille semblable, l'abdomen est de même forme, mais la teinte du corps est plus foncée.
-Förster a décrit Syrphus reciprocus des marnes en plaquettes de Brunnstatt, cet échantillon est dépourvu d'ailes, il mesure 6,5 mm ; il se peut que S. reciprocus soit identique à Sphegina abrasa. »[1].
+Förster a décrit Syrphus reciprocus des marnes en plaquettes de Brunnstatt, cet échantillon est dépourvu d'ailes, il mesure 6,5 mm ; il se peut que S. reciprocus soit identique à Sphegina abrasa. ».
 </t>
         </is>
       </c>
